--- a/S2022_Tests/ASS_03_Testing/KEY/MecE265_Car_Hub_Rim_Tire_SOLUTION/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/KEY/MecE265_Car_Hub_Rim_Tire_SOLUTION/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\KEY\MecE265_Car_Hub_Rim_Tire_SOLUTION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23CB2C10-E755-4DE2-974D-09131F1DBAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E3C5823-36AC-4900-88CA-CB9534B02887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{A6A051AA-BF70-4D69-9A13-DF8469D47835}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{BC6C25A8-C45C-4333-95CD-1CF3769833A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="416">
   <si>
     <t>DRW_NAME</t>
   </si>
@@ -217,6 +217,12 @@
     <t>Table_Height</t>
   </si>
   <si>
+    <t>Table_Font</t>
+  </si>
+  <si>
+    <t>Font_Size</t>
+  </si>
+  <si>
     <t>DetailItem439</t>
   </si>
   <si>
@@ -287,6 +293,9 @@
   </si>
   <si>
     <t>Rubber</t>
+  </si>
+  <si>
+    <t>Century Gothic</t>
   </si>
   <si>
     <t>BalloonName</t>
@@ -1696,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BAF26C-BBF2-4D5B-821A-79C67655D892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB5D276-F3AB-4E05-BA62-1886FEB6A993}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1994,10 +2003,16 @@
       <c r="I5" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2023,10 +2038,16 @@
       <c r="I6">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>202</v>
@@ -2049,7 +2070,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>1.6066551044583322E-2</v>
@@ -2075,22 +2096,22 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.5">
@@ -2101,16 +2122,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2124,16 +2145,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2147,16 +2168,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -2170,16 +2191,16 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2187,87 +2208,87 @@
     </row>
     <row r="14" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2329,13 +2350,13 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -2397,13 +2418,13 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -2465,13 +2486,13 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2533,13 +2554,13 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2601,13 +2622,13 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2669,13 +2690,13 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2737,13 +2758,13 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2805,7 +2826,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2873,7 +2894,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2941,7 +2962,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3009,7 +3030,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3077,7 +3098,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3145,7 +3166,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3213,7 +3234,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3281,7 +3302,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3349,7 +3370,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3417,7 +3438,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3485,7 +3506,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3553,7 +3574,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3621,7 +3642,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3689,7 +3710,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -3757,7 +3778,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
@@ -3825,7 +3846,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
@@ -3893,13 +3914,13 @@
     </row>
     <row r="39" spans="1:24" ht="186.35" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B39" t="b">
         <v>0</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -3961,13 +3982,13 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B40" t="b">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -4029,13 +4050,13 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B41" t="b">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -4097,13 +4118,13 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B42" t="b">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -4165,13 +4186,13 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B43" t="b">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -4233,13 +4254,13 @@
     </row>
     <row r="44" spans="1:24" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B44" t="b">
         <v>0</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -4301,13 +4322,13 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B45" t="b">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -4369,13 +4390,13 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B46" t="b">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -4437,13 +4458,13 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B47" t="b">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -4505,13 +4526,13 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B48" t="b">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -4573,7 +4594,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B49" t="b">
         <v>0</v>
@@ -4641,13 +4662,13 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B50" t="b">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -4709,13 +4730,13 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B51" t="b">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -4777,13 +4798,13 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B52" t="b">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -4845,13 +4866,13 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B53" t="b">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -4913,13 +4934,13 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B54" t="b">
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -4981,13 +5002,13 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B55" t="b">
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -5049,13 +5070,13 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B56" t="b">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -5117,7 +5138,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B57" t="b">
         <v>0</v>
@@ -5182,13 +5203,13 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B58" t="b">
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -5250,7 +5271,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B59" t="b">
         <v>0</v>
@@ -5315,13 +5336,13 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B60" t="b">
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -5383,13 +5404,13 @@
     </row>
     <row r="61" spans="1:24" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B61" t="b">
         <v>0</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -5451,7 +5472,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B62" t="b">
         <v>0</v>
@@ -5519,7 +5540,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B63" t="b">
         <v>0</v>
@@ -5587,13 +5608,13 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B64" t="b">
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -5655,13 +5676,13 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B65" t="b">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -5723,13 +5744,13 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B66" t="b">
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -5791,7 +5812,7 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B67" t="b">
         <v>0</v>
@@ -5859,7 +5880,7 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B68" t="b">
         <v>0</v>
@@ -5927,7 +5948,7 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B69" t="b">
         <v>0</v>
@@ -5995,7 +6016,7 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B70" t="b">
         <v>0</v>
@@ -6063,13 +6084,13 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -6131,13 +6152,13 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B72" t="b">
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -6199,13 +6220,13 @@
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B73" t="b">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -6267,13 +6288,13 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B74" t="b">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -6335,13 +6356,13 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B75" t="b">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -6403,7 +6424,7 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B76" t="b">
         <v>0</v>
@@ -6471,7 +6492,7 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B77" t="b">
         <v>0</v>
@@ -6539,7 +6560,7 @@
     </row>
     <row r="78" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A78" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>30</v>
@@ -6560,7 +6581,7 @@
         <v>35</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>38</v>
@@ -6569,48 +6590,48 @@
         <v>39</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S78" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T78" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="U78" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="V78" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W78" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B79">
         <v>9.4958090563739377E-3</v>
@@ -6640,7 +6661,7 @@
         <v>4</v>
       </c>
       <c r="K79" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -6675,79 +6696,79 @@
     </row>
     <row r="80" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A80" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P80" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R80" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="S80" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="T80" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="U80" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V80" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="W80" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="X80" s="8" t="s">
         <v>6</v>
       </c>
       <c r="Y80" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z80" s="8" t="s">
         <v>7</v>
@@ -6779,19 +6800,19 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I81" s="2">
         <v>40444.47625</v>
@@ -6842,16 +6863,16 @@
         <v>10</v>
       </c>
       <c r="Y81" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Z81" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AA81" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AB81" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AC81">
         <v>2</v>
@@ -6860,13 +6881,13 @@
         <v>175308.62</v>
       </c>
       <c r="AE81" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF81" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG81" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AH81" t="s">
         <v>24</v>
@@ -6874,22 +6895,22 @@
     </row>
     <row r="82" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A82" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>55</v>
@@ -6898,15 +6919,15 @@
         <v>56</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B83" t="b">
         <v>0</v>
@@ -6938,7 +6959,7 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B84" t="b">
         <v>0</v>
@@ -6970,7 +6991,7 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B85" t="b">
         <v>0</v>
@@ -7002,7 +7023,7 @@
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B86" t="b">
         <v>0</v>
@@ -7034,7 +7055,7 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B87" t="b">
         <v>0</v>
@@ -7066,7 +7087,7 @@
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B88" t="b">
         <v>0</v>
@@ -7098,81 +7119,81 @@
     </row>
     <row r="89" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A89" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="R89" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S89" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T89" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U89" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V89" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="W89" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X89" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B90" t="b">
         <v>0</v>
@@ -7246,7 +7267,7 @@
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B91" t="b">
         <v>0</v>
@@ -7320,7 +7341,7 @@
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B92" t="b">
         <v>0</v>
@@ -7394,7 +7415,7 @@
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B93" t="b">
         <v>0</v>
@@ -7533,7 +7554,7 @@
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -7624,10 +7645,16 @@
       <c r="I96" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="J96" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -7653,10 +7680,16 @@
       <c r="I97">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="J97" t="s">
+        <v>86</v>
+      </c>
+      <c r="K97">
+        <v>10</v>
+      </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B98">
         <v>202</v>
@@ -7679,7 +7712,7 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B99">
         <v>1.6066551044583322E-2</v>
@@ -7705,22 +7738,22 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="B100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C100" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D100" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E100" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F100" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G100" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.5">
@@ -7731,16 +7764,16 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D101" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E101" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F101" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -7754,16 +7787,16 @@
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D102" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E102" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F102" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -7777,16 +7810,16 @@
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D103" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E103" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F103" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G103">
         <v>5</v>
@@ -7800,16 +7833,16 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D104" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E104" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F104" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -7817,87 +7850,87 @@
     </row>
     <row r="105" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A105" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P105" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q105" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T105" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U105" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V105" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="W105" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X105" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B106" t="b">
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -7959,13 +7992,13 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B107" t="b">
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -8027,13 +8060,13 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B108" t="b">
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -8095,13 +8128,13 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B109" t="b">
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F109" t="b">
         <v>0</v>
@@ -8163,13 +8196,13 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B110" t="b">
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -8231,13 +8264,13 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B111" t="b">
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -8299,13 +8332,13 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B112" t="b">
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -8367,13 +8400,13 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B113" t="b">
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -8435,7 +8468,7 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B114" t="b">
         <v>0</v>
@@ -8503,7 +8536,7 @@
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B115" t="b">
         <v>0</v>
@@ -8571,7 +8604,7 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B116" t="b">
         <v>0</v>
@@ -8639,7 +8672,7 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B117" t="b">
         <v>0</v>
@@ -8707,7 +8740,7 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B118" t="b">
         <v>0</v>
@@ -8775,7 +8808,7 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B119" t="b">
         <v>0</v>
@@ -8843,7 +8876,7 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B120" t="b">
         <v>0</v>
@@ -8911,7 +8944,7 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B121" t="b">
         <v>0</v>
@@ -8979,7 +9012,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B122" t="b">
         <v>0</v>
@@ -9047,7 +9080,7 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B123" t="b">
         <v>0</v>
@@ -9115,7 +9148,7 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B124" t="b">
         <v>0</v>
@@ -9183,7 +9216,7 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B125" t="b">
         <v>0</v>
@@ -9251,7 +9284,7 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B126" t="b">
         <v>0</v>
@@ -9319,7 +9352,7 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B127" t="b">
         <v>0</v>
@@ -9387,7 +9420,7 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B128" t="b">
         <v>0</v>
@@ -9455,7 +9488,7 @@
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B129" t="b">
         <v>0</v>
@@ -9523,13 +9556,13 @@
     </row>
     <row r="130" spans="1:24" ht="186.35" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B130" t="b">
         <v>0</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
@@ -9591,13 +9624,13 @@
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B131" t="b">
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F131" t="b">
         <v>0</v>
@@ -9659,13 +9692,13 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B132" t="b">
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
@@ -9727,13 +9760,13 @@
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B133" t="b">
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F133" t="b">
         <v>0</v>
@@ -9795,13 +9828,13 @@
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B134" t="b">
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F134" t="b">
         <v>0</v>
@@ -9863,13 +9896,13 @@
     </row>
     <row r="135" spans="1:24" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B135" t="b">
         <v>0</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F135" t="b">
         <v>0</v>
@@ -9931,13 +9964,13 @@
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B136" t="b">
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
@@ -9999,13 +10032,13 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B137" t="b">
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
@@ -10067,13 +10100,13 @@
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B138" t="b">
         <v>0</v>
       </c>
       <c r="C138" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
@@ -10135,13 +10168,13 @@
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B139" t="b">
         <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F139" t="b">
         <v>0</v>
@@ -10203,7 +10236,7 @@
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B140" t="b">
         <v>0</v>
@@ -10271,13 +10304,13 @@
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B141" t="b">
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F141" t="b">
         <v>0</v>
@@ -10339,13 +10372,13 @@
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B142" t="b">
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F142" t="b">
         <v>0</v>
@@ -10407,13 +10440,13 @@
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B143" t="b">
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F143" t="b">
         <v>0</v>
@@ -10475,13 +10508,13 @@
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B144" t="b">
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
@@ -10543,13 +10576,13 @@
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B145" t="b">
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F145" t="b">
         <v>0</v>
@@ -10611,13 +10644,13 @@
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B146" t="b">
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F146" t="b">
         <v>0</v>
@@ -10679,13 +10712,13 @@
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B147" t="b">
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
@@ -10747,7 +10780,7 @@
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B148" t="b">
         <v>0</v>
@@ -10812,13 +10845,13 @@
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B149" t="b">
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
@@ -10880,7 +10913,7 @@
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B150" t="b">
         <v>0</v>
@@ -10945,13 +10978,13 @@
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B151" t="b">
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F151" t="b">
         <v>0</v>
@@ -11013,13 +11046,13 @@
     </row>
     <row r="152" spans="1:24" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B152" t="b">
         <v>0</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
@@ -11081,7 +11114,7 @@
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B153" t="b">
         <v>0</v>
@@ -11149,7 +11182,7 @@
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B154" t="b">
         <v>0</v>
@@ -11217,13 +11250,13 @@
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B155" t="b">
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
@@ -11285,13 +11318,13 @@
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B156" t="b">
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F156" t="b">
         <v>0</v>
@@ -11353,13 +11386,13 @@
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B157" t="b">
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F157" t="b">
         <v>0</v>
@@ -11421,7 +11454,7 @@
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B158" t="b">
         <v>0</v>
@@ -11489,7 +11522,7 @@
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B159" t="b">
         <v>0</v>
@@ -11557,7 +11590,7 @@
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B160" t="b">
         <v>0</v>
@@ -11625,7 +11658,7 @@
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B161" t="b">
         <v>0</v>
@@ -11693,13 +11726,13 @@
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B162" t="b">
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F162" t="b">
         <v>0</v>
@@ -11761,13 +11794,13 @@
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B163" t="b">
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F163" t="b">
         <v>0</v>
@@ -11829,13 +11862,13 @@
     </row>
     <row r="164" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B164" t="b">
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F164" t="b">
         <v>0</v>
@@ -11897,13 +11930,13 @@
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B165" t="b">
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F165" t="b">
         <v>0</v>
@@ -11965,13 +11998,13 @@
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B166" t="b">
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F166" t="b">
         <v>0</v>
@@ -12033,7 +12066,7 @@
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B167" t="b">
         <v>0</v>
@@ -12101,7 +12134,7 @@
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B168" t="b">
         <v>0</v>
@@ -12169,7 +12202,7 @@
     </row>
     <row r="169" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A169" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>30</v>
@@ -12190,7 +12223,7 @@
         <v>35</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I169" s="7" t="s">
         <v>38</v>
@@ -12199,51 +12232,51 @@
         <v>39</v>
       </c>
       <c r="K169" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L169" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M169" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N169" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O169" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P169" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q169" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="R169" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T169" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="U169" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="V169" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W169" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="X169" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B170">
         <v>0.16589253928815817</v>
@@ -12273,7 +12306,7 @@
         <v>4</v>
       </c>
       <c r="K170" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M170">
         <v>1</v>
@@ -12306,84 +12339,84 @@
         <v>0</v>
       </c>
       <c r="X170" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A171" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K171" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M171" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N171" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O171" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P171" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q171" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R171" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="S171" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="T171" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="U171" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V171" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="W171" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="X171" s="8" t="s">
         <v>6</v>
       </c>
       <c r="Y171" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z171" s="8" t="s">
         <v>7</v>
@@ -12415,19 +12448,19 @@
     </row>
     <row r="172" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C172" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H172" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I172" s="2">
         <v>40444.47625</v>
@@ -12478,16 +12511,16 @@
         <v>10</v>
       </c>
       <c r="Y172" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Z172" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AA172" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AB172" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AC172">
         <v>2</v>
@@ -12496,13 +12529,13 @@
         <v>175308.62</v>
       </c>
       <c r="AE172" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF172" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG172" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AH172" t="s">
         <v>24</v>
@@ -12510,69 +12543,69 @@
     </row>
     <row r="173" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A173" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K173" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M173" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N173" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O173" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P173" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q173" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="R173" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="S173" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="T173" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="174" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B174" t="b">
         <v>0</v>
@@ -12634,7 +12667,7 @@
     </row>
     <row r="175" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B175" t="b">
         <v>0</v>
@@ -12696,7 +12729,7 @@
     </row>
     <row r="176" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B176" t="b">
         <v>0</v>
@@ -12758,7 +12791,7 @@
     </row>
     <row r="177" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A177" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B177" t="b">
         <v>0</v>
@@ -12820,7 +12853,7 @@
     </row>
     <row r="178" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B178" t="b">
         <v>0</v>
@@ -12882,7 +12915,7 @@
     </row>
     <row r="179" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B179" t="b">
         <v>0</v>
@@ -12944,7 +12977,7 @@
     </row>
     <row r="180" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B180" t="b">
         <v>0</v>
@@ -13006,7 +13039,7 @@
     </row>
     <row r="181" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A181" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>30</v>
@@ -13027,7 +13060,7 @@
         <v>35</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I181" s="7" t="s">
         <v>38</v>
@@ -13036,48 +13069,48 @@
         <v>39</v>
       </c>
       <c r="K181" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L181" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M181" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N181" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O181" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P181" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q181" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="R181" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S181" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T181" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="U181" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="V181" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W181" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="182" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B182">
         <v>4.4115439637122424E-2</v>
@@ -13107,7 +13140,7 @@
         <v>4</v>
       </c>
       <c r="L182" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M182">
         <v>0</v>
@@ -13125,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="R182" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="S182">
         <v>0</v>
@@ -13145,79 +13178,79 @@
     </row>
     <row r="183" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A183" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H183" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K183" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M183" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N183" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O183" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P183" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q183" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R183" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="S183" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="T183" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="U183" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V183" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="W183" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="X183" s="8" t="s">
         <v>6</v>
       </c>
       <c r="Y183" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z183" s="8" t="s">
         <v>7</v>
@@ -13249,19 +13282,19 @@
     </row>
     <row r="184" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B184" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C184" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E184" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H184" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I184" s="2">
         <v>40444.47625</v>
@@ -13312,16 +13345,16 @@
         <v>10</v>
       </c>
       <c r="Y184" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Z184" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AA184" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AB184" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AC184">
         <v>2</v>
@@ -13330,13 +13363,13 @@
         <v>175308.62</v>
       </c>
       <c r="AE184" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF184" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG184" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AH184" t="s">
         <v>24</v>
@@ -13344,22 +13377,22 @@
     </row>
     <row r="185" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A185" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>55</v>
@@ -13368,15 +13401,15 @@
         <v>56</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J185" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B186" t="b">
         <v>0</v>
@@ -13408,7 +13441,7 @@
     </row>
     <row r="187" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B187" t="b">
         <v>0</v>
@@ -13440,7 +13473,7 @@
     </row>
     <row r="188" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B188" t="b">
         <v>0</v>
@@ -13472,81 +13505,81 @@
     </row>
     <row r="189" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A189" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J189" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K189" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M189" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N189" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O189" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P189" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q189" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="R189" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S189" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T189" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U189" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V189" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="W189" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X189" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="190" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B190" t="b">
         <v>0</v>
@@ -13614,7 +13647,7 @@
     </row>
     <row r="191" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B191" t="b">
         <v>0</v>
@@ -13688,7 +13721,7 @@
     </row>
     <row r="192" spans="1:34" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B192" t="b">
         <v>0</v>
@@ -13762,7 +13795,7 @@
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B193" t="b">
         <v>0</v>
@@ -13836,7 +13869,7 @@
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B194" t="b">
         <v>0</v>
@@ -13975,7 +14008,7 @@
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -14040,87 +14073,87 @@
     </row>
     <row r="197" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A197" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J197" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K197" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L197" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M197" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N197" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O197" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P197" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q197" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="R197" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S197" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T197" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U197" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V197" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="W197" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X197" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B198" t="b">
         <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
@@ -14182,13 +14215,13 @@
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B199" t="b">
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
@@ -14250,13 +14283,13 @@
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B200" t="b">
         <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F200" t="b">
         <v>0</v>
@@ -14318,13 +14351,13 @@
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A201" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B201" t="b">
         <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -14386,13 +14419,13 @@
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A202" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B202" t="b">
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F202" t="b">
         <v>0</v>
@@ -14454,13 +14487,13 @@
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B203" t="b">
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F203" t="b">
         <v>0</v>
@@ -14522,13 +14555,13 @@
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B204" t="b">
         <v>0</v>
       </c>
       <c r="C204" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
@@ -14590,13 +14623,13 @@
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B205" t="b">
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
@@ -14658,7 +14691,7 @@
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B206" t="b">
         <v>0</v>
@@ -14726,7 +14759,7 @@
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B207" t="b">
         <v>0</v>
@@ -14794,7 +14827,7 @@
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B208" t="b">
         <v>0</v>
@@ -14862,7 +14895,7 @@
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B209" t="b">
         <v>0</v>
@@ -14930,7 +14963,7 @@
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B210" t="b">
         <v>0</v>
@@ -14998,7 +15031,7 @@
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A211" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B211" t="b">
         <v>0</v>
@@ -15066,7 +15099,7 @@
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B212" t="b">
         <v>0</v>
@@ -15134,7 +15167,7 @@
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A213" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B213" t="b">
         <v>0</v>
@@ -15202,7 +15235,7 @@
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B214" t="b">
         <v>0</v>
@@ -15270,7 +15303,7 @@
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B215" t="b">
         <v>0</v>
@@ -15338,7 +15371,7 @@
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B216" t="b">
         <v>0</v>
@@ -15406,7 +15439,7 @@
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B217" t="b">
         <v>0</v>
@@ -15474,7 +15507,7 @@
     </row>
     <row r="218" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B218" t="b">
         <v>0</v>
@@ -15542,7 +15575,7 @@
     </row>
     <row r="219" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A219" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B219" t="b">
         <v>0</v>
@@ -15610,7 +15643,7 @@
     </row>
     <row r="220" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B220" t="b">
         <v>0</v>
@@ -15678,7 +15711,7 @@
     </row>
     <row r="221" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A221" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B221" t="b">
         <v>0</v>
@@ -15746,13 +15779,13 @@
     </row>
     <row r="222" spans="1:24" ht="186.35" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B222" t="b">
         <v>0</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F222" t="b">
         <v>0</v>
@@ -15814,13 +15847,13 @@
     </row>
     <row r="223" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B223" t="b">
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F223" t="b">
         <v>0</v>
@@ -15882,13 +15915,13 @@
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B224" t="b">
         <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F224" t="b">
         <v>0</v>
@@ -15950,13 +15983,13 @@
     </row>
     <row r="225" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A225" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B225" t="b">
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F225" t="b">
         <v>0</v>
@@ -16018,13 +16051,13 @@
     </row>
     <row r="226" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A226" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B226" t="b">
         <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F226" t="b">
         <v>0</v>
@@ -16086,13 +16119,13 @@
     </row>
     <row r="227" spans="1:24" ht="71.7" x14ac:dyDescent="0.5">
       <c r="A227" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B227" t="b">
         <v>0</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F227" t="b">
         <v>0</v>
@@ -16154,13 +16187,13 @@
     </row>
     <row r="228" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A228" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B228" t="b">
         <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F228" t="b">
         <v>0</v>
@@ -16222,13 +16255,13 @@
     </row>
     <row r="229" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A229" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B229" t="b">
         <v>0</v>
       </c>
       <c r="C229" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -16290,13 +16323,13 @@
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A230" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B230" t="b">
         <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F230" t="b">
         <v>0</v>
@@ -16358,13 +16391,13 @@
     </row>
     <row r="231" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A231" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B231" t="b">
         <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F231" t="b">
         <v>0</v>
@@ -16426,7 +16459,7 @@
     </row>
     <row r="232" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A232" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B232" t="b">
         <v>0</v>
@@ -16494,13 +16527,13 @@
     </row>
     <row r="233" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A233" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B233" t="b">
         <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F233" t="b">
         <v>0</v>
@@ -16562,13 +16595,13 @@
     </row>
     <row r="234" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A234" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B234" t="b">
         <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F234" t="b">
         <v>0</v>
@@ -16630,13 +16663,13 @@
     </row>
     <row r="235" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A235" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B235" t="b">
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F235" t="b">
         <v>0</v>
@@ -16698,13 +16731,13 @@
     </row>
     <row r="236" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A236" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B236" t="b">
         <v>0</v>
       </c>
       <c r="C236" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F236" t="b">
         <v>0</v>
@@ -16766,13 +16799,13 @@
     </row>
     <row r="237" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A237" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B237" t="b">
         <v>0</v>
       </c>
       <c r="C237" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
@@ -16834,13 +16867,13 @@
     </row>
     <row r="238" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A238" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B238" t="b">
         <v>0</v>
       </c>
       <c r="C238" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F238" t="b">
         <v>0</v>
@@ -16902,13 +16935,13 @@
     </row>
     <row r="239" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A239" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B239" t="b">
         <v>0</v>
       </c>
       <c r="C239" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F239" t="b">
         <v>0</v>
@@ -16970,7 +17003,7 @@
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A240" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B240" t="b">
         <v>0</v>
@@ -17035,13 +17068,13 @@
     </row>
     <row r="241" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A241" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B241" t="b">
         <v>0</v>
       </c>
       <c r="C241" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F241" t="b">
         <v>0</v>
@@ -17103,13 +17136,13 @@
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A242" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B242" t="b">
         <v>0</v>
       </c>
       <c r="C242" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F242" t="b">
         <v>0</v>
@@ -17171,13 +17204,13 @@
     </row>
     <row r="243" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A243" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B243" t="b">
         <v>0</v>
       </c>
       <c r="C243" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F243" t="b">
         <v>0</v>
@@ -17239,13 +17272,13 @@
     </row>
     <row r="244" spans="1:24" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A244" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B244" t="b">
         <v>0</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F244" t="b">
         <v>0</v>
@@ -17307,7 +17340,7 @@
     </row>
     <row r="245" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A245" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B245" t="b">
         <v>0</v>
@@ -17375,7 +17408,7 @@
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A246" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B246" t="b">
         <v>0</v>
@@ -17443,13 +17476,13 @@
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A247" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B247" t="b">
         <v>0</v>
       </c>
       <c r="C247" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F247" t="b">
         <v>0</v>
@@ -17511,13 +17544,13 @@
     </row>
     <row r="248" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A248" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B248" t="b">
         <v>0</v>
       </c>
       <c r="C248" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F248" t="b">
         <v>0</v>
@@ -17579,13 +17612,13 @@
     </row>
     <row r="249" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A249" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B249" t="b">
         <v>0</v>
       </c>
       <c r="C249" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F249" t="b">
         <v>0</v>
@@ -17647,7 +17680,7 @@
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A250" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B250" t="b">
         <v>0</v>
@@ -17715,7 +17748,7 @@
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A251" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B251" t="b">
         <v>0</v>
@@ -17783,7 +17816,7 @@
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A252" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B252" t="b">
         <v>0</v>
@@ -17851,7 +17884,7 @@
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A253" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B253" t="b">
         <v>0</v>
@@ -17919,13 +17952,13 @@
     </row>
     <row r="254" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A254" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B254" t="b">
         <v>0</v>
       </c>
       <c r="C254" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F254" t="b">
         <v>0</v>
@@ -17987,13 +18020,13 @@
     </row>
     <row r="255" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A255" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B255" t="b">
         <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F255" t="b">
         <v>0</v>
@@ -18055,13 +18088,13 @@
     </row>
     <row r="256" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A256" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B256" t="b">
         <v>0</v>
       </c>
       <c r="C256" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F256" t="b">
         <v>0</v>
@@ -18123,13 +18156,13 @@
     </row>
     <row r="257" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A257" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B257" t="b">
         <v>0</v>
       </c>
       <c r="C257" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F257" t="b">
         <v>0</v>
@@ -18191,13 +18224,13 @@
     </row>
     <row r="258" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A258" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B258" t="b">
         <v>0</v>
       </c>
       <c r="C258" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F258" t="b">
         <v>0</v>
@@ -18259,7 +18292,7 @@
     </row>
     <row r="259" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A259" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B259" t="b">
         <v>0</v>
@@ -18327,7 +18360,7 @@
     </row>
     <row r="260" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A260" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B260" t="b">
         <v>0</v>
@@ -18395,7 +18428,7 @@
     </row>
     <row r="261" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A261" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>30</v>
@@ -18416,7 +18449,7 @@
         <v>35</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I261" s="7" t="s">
         <v>38</v>
@@ -18425,54 +18458,54 @@
         <v>39</v>
       </c>
       <c r="K261" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L261" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M261" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N261" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O261" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P261" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q261" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="R261" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S261" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T261" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="U261" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="V261" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W261" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="X261" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Y261" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="262" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A262" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B262">
         <v>0.18262810309682317</v>
@@ -18502,7 +18535,7 @@
         <v>4</v>
       </c>
       <c r="K262" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M262">
         <v>2</v>
@@ -18535,90 +18568,90 @@
         <v>0</v>
       </c>
       <c r="X262" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Y262" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="263" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A263" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H263" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I263" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J263" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K263" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L263" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M263" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N263" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O263" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P263" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q263" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R263" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="S263" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="T263" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="U263" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V263" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="W263" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="X263" s="8" t="s">
         <v>6</v>
       </c>
       <c r="Y263" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z263" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA263" s="8" t="s">
         <v>7</v>
@@ -18639,7 +18672,7 @@
         <v>18</v>
       </c>
       <c r="AG263" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AH263" s="8" t="s">
         <v>25</v>
@@ -18653,22 +18686,22 @@
     </row>
     <row r="264" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A264" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B264" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C264" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E264" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G264" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H264" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I264" s="2">
         <v>40199.443194444444</v>
@@ -18719,22 +18752,22 @@
         <v>12</v>
       </c>
       <c r="Y264" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z264" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA264" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AB264" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AC264" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AD264" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AE264">
         <v>2</v>
@@ -18743,13 +18776,13 @@
         <v>168215.73</v>
       </c>
       <c r="AG264" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AH264" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AI264" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AJ264" t="s">
         <v>24</v>
@@ -18757,144 +18790,144 @@
     </row>
     <row r="265" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A265" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K265" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L265" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N265" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O265" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P265" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q265" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="R265" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="S265" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="T265" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="U265" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="V265" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="W265" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="X265" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Y265" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Z265" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AA265" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AB265" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AC265" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AD265" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AE265" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AF265" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AG265" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AH265" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AI265" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AJ265" s="5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AK265" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AL265" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AM265" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AN265" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AO265" s="5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AP265" s="5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AQ265" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AR265" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AS265" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="266" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A266" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B266" t="b">
         <v>0</v>
@@ -18933,10 +18966,10 @@
         <v>-1</v>
       </c>
       <c r="N266" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O266" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="V266">
         <v>438.40000000000003</v>
@@ -19013,69 +19046,69 @@
     </row>
     <row r="267" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A267" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K267" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L267" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M267" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N267" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O267" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P267" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q267" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="R267" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="S267" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="T267" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="268" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A268" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B268" t="b">
         <v>0</v>
@@ -19137,7 +19170,7 @@
     </row>
     <row r="269" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A269" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B269" t="b">
         <v>0</v>
@@ -19199,7 +19232,7 @@
     </row>
     <row r="270" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A270" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B270" t="b">
         <v>0</v>
@@ -19261,7 +19294,7 @@
     </row>
     <row r="271" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A271" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B271" t="b">
         <v>0</v>
@@ -19323,7 +19356,7 @@
     </row>
     <row r="272" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A272" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B272" t="b">
         <v>0</v>
@@ -19385,7 +19418,7 @@
     </row>
     <row r="273" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A273" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B273" t="b">
         <v>0</v>
@@ -19447,13 +19480,13 @@
     </row>
     <row r="274" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A274" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D274" s="5" t="s">
         <v>55</v>
@@ -19462,24 +19495,24 @@
         <v>56</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I274" s="5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J274" s="5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="275" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A275" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B275" t="b">
         <v>0</v>
@@ -19506,12 +19539,12 @@
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="276" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A276" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B276" s="7" t="s">
         <v>30</v>
@@ -19532,7 +19565,7 @@
         <v>35</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I276" s="7" t="s">
         <v>38</v>
@@ -19541,48 +19574,48 @@
         <v>39</v>
       </c>
       <c r="K276" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L276" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M276" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N276" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O276" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P276" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q276" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="R276" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S276" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T276" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="U276" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="V276" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W276" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="277" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A277" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B277">
         <v>0.29276122357824974</v>
@@ -19612,7 +19645,7 @@
         <v>2</v>
       </c>
       <c r="L277" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M277">
         <v>0</v>
@@ -19647,82 +19680,82 @@
     </row>
     <row r="278" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A278" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G278" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H278" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I278" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J278" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K278" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L278" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M278" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N278" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O278" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P278" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q278" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R278" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="S278" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="T278" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="U278" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V278" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="W278" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="X278" s="8" t="s">
         <v>6</v>
       </c>
       <c r="Y278" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z278" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA278" s="8" t="s">
         <v>7</v>
@@ -19743,7 +19776,7 @@
         <v>18</v>
       </c>
       <c r="AG278" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AH278" s="8" t="s">
         <v>25</v>
@@ -19757,22 +19790,22 @@
     </row>
     <row r="279" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A279" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B279" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C279" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E279" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G279" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H279" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I279" s="2">
         <v>40199.443194444444</v>
@@ -19823,22 +19856,22 @@
         <v>12</v>
       </c>
       <c r="Y279" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z279" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA279" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AB279" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AC279" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AD279" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AE279">
         <v>2</v>
@@ -19847,13 +19880,13 @@
         <v>168215.73</v>
       </c>
       <c r="AG279" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AH279" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AI279" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AJ279" t="s">
         <v>24</v>
@@ -19861,144 +19894,144 @@
     </row>
     <row r="280" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A280" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J280" s="5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K280" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L280" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M280" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N280" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O280" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q280" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="R280" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="S280" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="T280" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="U280" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="V280" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="W280" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="X280" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Y280" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Z280" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AA280" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AB280" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AC280" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AD280" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AE280" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AF280" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AG280" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AH280" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AI280" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AJ280" s="5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AK280" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AL280" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AM280" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AN280" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AO280" s="5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AP280" s="5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AQ280" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AR280" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AS280" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="281" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A281" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B281" t="b">
         <v>0</v>
@@ -20037,10 +20070,10 @@
         <v>-1</v>
       </c>
       <c r="N281" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O281" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="V281">
         <v>60</v>
@@ -20117,7 +20150,7 @@
     </row>
     <row r="282" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A282" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B282" t="b">
         <v>0</v>
@@ -20156,10 +20189,10 @@
         <v>-1</v>
       </c>
       <c r="N282" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O282" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="V282">
         <v>110.00000000000006</v>
@@ -20236,7 +20269,7 @@
     </row>
     <row r="283" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A283" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B283" t="b">
         <v>0</v>
@@ -20275,16 +20308,16 @@
         <v>-1</v>
       </c>
       <c r="N283" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O283" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="R283" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="S283" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="V283">
         <v>34.528759999999977</v>
@@ -20361,69 +20394,69 @@
     </row>
     <row r="284" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A284" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J284" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K284" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L284" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M284" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N284" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O284" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q284" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="R284" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="S284" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="T284" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="285" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A285" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B285" t="b">
         <v>0</v>
@@ -20485,7 +20518,7 @@
     </row>
     <row r="286" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A286" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B286" t="b">
         <v>0</v>
@@ -20547,7 +20580,7 @@
     </row>
     <row r="287" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A287" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B287" t="b">
         <v>0</v>
@@ -20609,7 +20642,7 @@
     </row>
     <row r="288" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A288" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B288" t="b">
         <v>0</v>
@@ -20671,7 +20704,7 @@
     </row>
     <row r="289" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A289" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B289" t="b">
         <v>0</v>
@@ -20733,7 +20766,7 @@
     </row>
     <row r="290" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A290" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B290" t="b">
         <v>0</v>
@@ -20795,87 +20828,87 @@
     </row>
     <row r="291" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A291" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J291" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K291" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L291" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M291" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N291" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O291" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P291" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q291" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="R291" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S291" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T291" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U291" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V291" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="W291" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X291" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="292" spans="1:45" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A292" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B292" t="b">
         <v>0</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F292" t="b">
         <v>0</v>
@@ -20937,7 +20970,7 @@
     </row>
     <row r="293" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A293" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B293" s="7" t="s">
         <v>30</v>
@@ -20958,7 +20991,7 @@
         <v>35</v>
       </c>
       <c r="H293" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I293" s="7" t="s">
         <v>38</v>
@@ -20967,48 +21000,48 @@
         <v>39</v>
       </c>
       <c r="K293" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L293" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M293" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N293" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O293" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P293" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q293" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="R293" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S293" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T293" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="U293" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="V293" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W293" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="294" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A294" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B294">
         <v>0.35386319604964145</v>
@@ -21038,7 +21071,7 @@
         <v>10</v>
       </c>
       <c r="K294" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M294">
         <v>0</v>
@@ -21073,82 +21106,82 @@
     </row>
     <row r="295" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A295" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C295" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H295" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I295" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J295" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K295" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L295" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M295" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N295" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O295" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P295" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q295" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R295" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="S295" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="T295" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="U295" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V295" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="W295" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="X295" s="8" t="s">
         <v>6</v>
       </c>
       <c r="Y295" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z295" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA295" s="8" t="s">
         <v>7</v>
@@ -21169,7 +21202,7 @@
         <v>18</v>
       </c>
       <c r="AG295" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AH295" s="8" t="s">
         <v>25</v>
@@ -21183,22 +21216,22 @@
     </row>
     <row r="296" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A296" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B296" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C296" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E296" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G296" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H296" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I296" s="2">
         <v>40199.443194444444</v>
@@ -21249,22 +21282,22 @@
         <v>12</v>
       </c>
       <c r="Y296" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z296" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA296" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AB296" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AC296" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AD296" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AE296">
         <v>2</v>
@@ -21273,13 +21306,13 @@
         <v>168215.73</v>
       </c>
       <c r="AG296" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AH296" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AI296" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AJ296" t="s">
         <v>24</v>
@@ -21287,7 +21320,7 @@
     </row>
     <row r="297" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A297" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B297" s="7" t="s">
         <v>30</v>
@@ -21308,7 +21341,7 @@
         <v>35</v>
       </c>
       <c r="H297" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I297" s="7" t="s">
         <v>38</v>
@@ -21317,51 +21350,51 @@
         <v>39</v>
       </c>
       <c r="K297" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L297" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M297" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N297" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O297" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P297" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q297" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="R297" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S297" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T297" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="U297" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="V297" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W297" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="X297" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="298" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A298" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B298">
         <v>8.8650833217026284E-2</v>
@@ -21391,7 +21424,7 @@
         <v>4</v>
       </c>
       <c r="L298" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M298">
         <v>1</v>
@@ -21409,7 +21442,7 @@
         <v>0</v>
       </c>
       <c r="R298" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="S298">
         <v>5</v>
@@ -21427,87 +21460,87 @@
         <v>1</v>
       </c>
       <c r="X298" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="299" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A299" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G299" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H299" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I299" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J299" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K299" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L299" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M299" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N299" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O299" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P299" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q299" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R299" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="S299" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="T299" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="U299" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V299" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="W299" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="X299" s="8" t="s">
         <v>6</v>
       </c>
       <c r="Y299" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z299" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA299" s="8" t="s">
         <v>7</v>
@@ -21528,7 +21561,7 @@
         <v>18</v>
       </c>
       <c r="AG299" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AH299" s="8" t="s">
         <v>25</v>
@@ -21542,22 +21575,22 @@
     </row>
     <row r="300" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A300" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B300" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C300" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E300" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G300" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H300" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I300" s="2">
         <v>40199.443194444444</v>
@@ -21608,22 +21641,22 @@
         <v>12</v>
       </c>
       <c r="Y300" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z300" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA300" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AB300" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AC300" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AD300" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AE300">
         <v>2</v>
@@ -21632,13 +21665,13 @@
         <v>168215.73</v>
       </c>
       <c r="AG300" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AH300" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AI300" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AJ300" t="s">
         <v>24</v>
@@ -21646,144 +21679,144 @@
     </row>
     <row r="301" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A301" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J301" s="5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K301" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L301" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M301" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N301" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O301" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P301" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q301" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="R301" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="S301" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="T301" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="U301" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="V301" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="W301" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="X301" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Y301" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Z301" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AA301" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AB301" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AC301" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AD301" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AE301" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AF301" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AG301" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AH301" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AI301" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AJ301" s="5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AK301" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AL301" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AM301" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AN301" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AO301" s="5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AP301" s="5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AQ301" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AR301" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AS301" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="302" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A302" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B302" t="b">
         <v>0</v>
@@ -21822,10 +21855,10 @@
         <v>-1</v>
       </c>
       <c r="N302" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O302" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="V302">
         <v>386.4</v>
@@ -21902,7 +21935,7 @@
     </row>
     <row r="303" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A303" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B303" t="b">
         <v>0</v>
@@ -21941,10 +21974,10 @@
         <v>-1</v>
       </c>
       <c r="N303" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O303" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="V303">
         <v>406.4</v>
@@ -22021,7 +22054,7 @@
     </row>
     <row r="304" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A304" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B304" t="b">
         <v>0</v>
@@ -22134,7 +22167,7 @@
     </row>
     <row r="305" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A305" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B305" t="b">
         <v>0</v>
@@ -22247,7 +22280,7 @@
     </row>
     <row r="306" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A306" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B306" t="b">
         <v>0</v>
@@ -22360,22 +22393,22 @@
     </row>
     <row r="307" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A307" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E307" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G307" s="5" t="s">
         <v>55</v>
@@ -22384,15 +22417,15 @@
         <v>56</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J307" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="308" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A308" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B308" t="b">
         <v>0</v>
@@ -22424,7 +22457,7 @@
     </row>
     <row r="309" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A309" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B309" t="b">
         <v>0</v>
@@ -22456,7 +22489,7 @@
     </row>
     <row r="310" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A310" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B310" t="b">
         <v>0</v>
@@ -22488,7 +22521,7 @@
     </row>
     <row r="311" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A311" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B311" t="b">
         <v>0</v>
@@ -22520,7 +22553,7 @@
     </row>
     <row r="312" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A312" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B312" t="b">
         <v>0</v>
@@ -22552,69 +22585,69 @@
     </row>
     <row r="313" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A313" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J313" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K313" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L313" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M313" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N313" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O313" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q313" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="R313" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="S313" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="T313" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="314" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A314" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B314" t="b">
         <v>0</v>
@@ -22676,7 +22709,7 @@
     </row>
     <row r="315" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A315" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B315" t="b">
         <v>0</v>
@@ -22738,7 +22771,7 @@
     </row>
     <row r="316" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A316" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B316" t="b">
         <v>0</v>
@@ -22800,7 +22833,7 @@
     </row>
     <row r="317" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A317" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B317" t="b">
         <v>0</v>
@@ -22862,7 +22895,7 @@
     </row>
     <row r="318" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A318" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B318" t="b">
         <v>0</v>
@@ -22924,7 +22957,7 @@
     </row>
     <row r="319" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A319" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B319" t="b">
         <v>0</v>
@@ -22986,7 +23019,7 @@
     </row>
     <row r="320" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A320" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B320" t="b">
         <v>0</v>
@@ -23048,7 +23081,7 @@
     </row>
     <row r="321" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A321" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B321" t="b">
         <v>0</v>
@@ -23110,81 +23143,81 @@
     </row>
     <row r="322" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A322" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H322" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J322" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K322" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L322" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M322" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N322" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O322" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P322" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q322" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="R322" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S322" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T322" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U322" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V322" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="W322" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X322" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="323" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A323" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B323" t="b">
         <v>0</v>
@@ -23252,7 +23285,7 @@
     </row>
     <row r="324" spans="1:45" s="7" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A324" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B324" s="7" t="s">
         <v>30</v>
@@ -23273,7 +23306,7 @@
         <v>35</v>
       </c>
       <c r="H324" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I324" s="7" t="s">
         <v>38</v>
@@ -23282,48 +23315,48 @@
         <v>39</v>
       </c>
       <c r="K324" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L324" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M324" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N324" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O324" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P324" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q324" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="R324" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S324" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T324" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="U324" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="V324" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="W324" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="325" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A325" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B325">
         <v>7.3108309749966944E-3</v>
@@ -23353,7 +23386,7 @@
         <v>5</v>
       </c>
       <c r="L325" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M325">
         <v>0</v>
@@ -23388,82 +23421,82 @@
     </row>
     <row r="326" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A326" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D326" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F326" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G326" s="8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H326" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I326" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J326" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K326" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L326" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M326" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N326" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O326" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P326" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q326" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R326" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="S326" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="T326" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="U326" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V326" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="W326" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="X326" s="8" t="s">
         <v>6</v>
       </c>
       <c r="Y326" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z326" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA326" s="8" t="s">
         <v>7</v>
@@ -23484,7 +23517,7 @@
         <v>18</v>
       </c>
       <c r="AG326" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AH326" s="8" t="s">
         <v>25</v>
@@ -23498,22 +23531,22 @@
     </row>
     <row r="327" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A327" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B327" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C327" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E327" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G327" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H327" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I327" s="2">
         <v>40199.443194444444</v>
@@ -23564,22 +23597,22 @@
         <v>12</v>
       </c>
       <c r="Y327" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z327" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA327" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AB327" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AC327" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AD327" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AE327">
         <v>2</v>
@@ -23588,13 +23621,13 @@
         <v>168215.73</v>
       </c>
       <c r="AG327" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AH327" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AI327" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AJ327" t="s">
         <v>24</v>
@@ -23602,144 +23635,144 @@
     </row>
     <row r="328" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A328" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F328" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H328" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I328" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J328" s="5" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K328" s="5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L328" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M328" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N328" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O328" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P328" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q328" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="R328" s="5" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="S328" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="T328" s="5" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="U328" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="V328" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="W328" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="X328" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Y328" s="5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Z328" s="5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AA328" s="5" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AB328" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AC328" s="5" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AD328" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AE328" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AF328" s="5" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AG328" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AH328" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AI328" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AJ328" s="5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AK328" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AL328" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AM328" s="5" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AN328" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AO328" s="5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AP328" s="5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AQ328" s="5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AR328" s="5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AS328" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="329" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A329" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B329" t="b">
         <v>0</v>
@@ -23852,7 +23885,7 @@
     </row>
     <row r="330" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A330" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B330" t="b">
         <v>0</v>
@@ -23965,7 +23998,7 @@
     </row>
     <row r="331" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A331" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B331" t="b">
         <v>0</v>
@@ -24078,7 +24111,7 @@
     </row>
     <row r="332" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A332" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B332" t="b">
         <v>0</v>
@@ -24117,10 +24150,10 @@
         <v>-1</v>
       </c>
       <c r="N332" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="O332" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="V332">
         <v>1.9999999999996132</v>
@@ -24197,7 +24230,7 @@
     </row>
     <row r="333" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A333" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B333" t="b">
         <v>0</v>
@@ -24236,10 +24269,10 @@
         <v>-1</v>
       </c>
       <c r="N333" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="O333" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="V333">
         <v>6.5000000000000053</v>
@@ -24316,7 +24349,7 @@
     </row>
     <row r="334" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A334" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B334" t="b">
         <v>0</v>
@@ -24429,7 +24462,7 @@
     </row>
     <row r="335" spans="1:45" x14ac:dyDescent="0.5">
       <c r="A335" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B335" t="b">
         <v>0</v>
@@ -24542,69 +24575,69 @@
     </row>
     <row r="336" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A336" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G336" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H336" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I336" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J336" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K336" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L336" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M336" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N336" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O336" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P336" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q336" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="R336" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="S336" s="5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="T336" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="337" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A337" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B337" t="b">
         <v>0</v>
@@ -24666,7 +24699,7 @@
     </row>
     <row r="338" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A338" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B338" t="b">
         <v>0</v>
@@ -24728,7 +24761,7 @@
     </row>
     <row r="339" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A339" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B339" t="b">
         <v>0</v>
@@ -24790,7 +24823,7 @@
     </row>
     <row r="340" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A340" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B340" t="b">
         <v>0</v>
@@ -24852,13 +24885,13 @@
     </row>
     <row r="341" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A341" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D341" s="5" t="s">
         <v>55</v>
@@ -24867,24 +24900,24 @@
         <v>56</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G341" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H341" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I341" s="5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="J341" s="5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="342" spans="1:24" x14ac:dyDescent="0.5">
       <c r="A342" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B342" t="b">
         <v>0</v>
@@ -24911,92 +24944,92 @@
         <v>1</v>
       </c>
       <c r="J342" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="343" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A343" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G343" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H343" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J343" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K343" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L343" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M343" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N343" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O343" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q343" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="R343" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S343" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T343" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U343" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="W343" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X343" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="344" spans="1:24" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A344" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B344" t="b">
         <v>0</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F344" t="b">
         <v>0</v>

--- a/S2022_Tests/ASS_03_Testing/KEY/MecE265_Car_Hub_Rim_Tire_SOLUTION/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/KEY/MecE265_Car_Hub_Rim_Tire_SOLUTION/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\KEY\MecE265_Car_Hub_Rim_Tire_SOLUTION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E3C5823-36AC-4900-88CA-CB9534B02887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D74EC00A-1AD2-4275-988A-6471E2983528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{BC6C25A8-C45C-4333-95CD-1CF3769833A8}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{D9AF68AB-B6E9-465C-8FE5-94C835E76010}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB5D276-F3AB-4E05-BA62-1886FEB6A993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54D3FED-35EA-439A-88ED-FE08A1130C85}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/KEY/MecE265_Car_Hub_Rim_Tire_SOLUTION/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/KEY/MecE265_Car_Hub_Rim_Tire_SOLUTION/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\KEY\MecE265_Car_Hub_Rim_Tire_SOLUTION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D74EC00A-1AD2-4275-988A-6471E2983528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF24D71B-380A-4206-9750-B6B89E03E726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{D9AF68AB-B6E9-465C-8FE5-94C835E76010}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{10305149-09D2-44C8-9EEC-B2D7946ABB88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54D3FED-35EA-439A-88ED-FE08A1130C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01E121F-9705-44DC-9882-780D3260CA83}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_03_Testing/KEY/MecE265_Car_Hub_Rim_Tire_SOLUTION/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_03_Testing/KEY/MecE265_Car_Hub_Rim_Tire_SOLUTION/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_03_Testing\KEY\MecE265_Car_Hub_Rim_Tire_SOLUTION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF24D71B-380A-4206-9750-B6B89E03E726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F619663-6102-48BC-A836-A190E2D0E779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{10305149-09D2-44C8-9EEC-B2D7946ABB88}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{52E4FCC7-BC7B-4DDF-A1FF-68C4CDF87CF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,7 +1705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01E121F-9705-44DC-9882-780D3260CA83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C0F7D9-FEAE-47F2-853D-B4BB19054F80}">
   <dimension ref="A1:AS344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7214,10 +7214,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0.10313055483870971</v>
+        <v>0.10311628744939273</v>
       </c>
       <c r="I90">
-        <v>0.22785220215053764</v>
+        <v>0.2278693643724696</v>
       </c>
       <c r="J90">
         <v>7.6256951102922493E-2</v>
@@ -7235,10 +7235,10 @@
         <v>2</v>
       </c>
       <c r="O90">
-        <v>0.10075829580136415</v>
+        <v>0.10086961234049278</v>
       </c>
       <c r="P90">
-        <v>0.2235895107300358</v>
+        <v>0.22395734004865536</v>
       </c>
       <c r="Q90">
         <v>7.6256951102922493E-2</v>
@@ -7288,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0.14439763440860215</v>
+        <v>0.14446070040485831</v>
       </c>
       <c r="I91">
-        <v>0.22785220215053764</v>
+        <v>0.2278693643724696</v>
       </c>
       <c r="J91">
         <v>0.1390103067545764</v>
@@ -7309,10 +7309,10 @@
         <v>2</v>
       </c>
       <c r="O91">
-        <v>0.14360770418410829</v>
+        <v>0.14370502156590603</v>
       </c>
       <c r="P91">
-        <v>0.22307815735913769</v>
+        <v>0.22347557962285849</v>
       </c>
       <c r="Q91">
         <v>0.1390103067545764</v>
@@ -7362,10 +7362,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0.18566471397849466</v>
+        <v>0.18561281376518218</v>
       </c>
       <c r="I92">
-        <v>0.22785220215053764</v>
+        <v>0.2278693643724696</v>
       </c>
       <c r="J92">
         <v>0.22606217116532146</v>
@@ -7383,10 +7383,10 @@
         <v>2</v>
       </c>
       <c r="O92">
-        <v>0.18824630477539489</v>
+        <v>0.18806261586491002</v>
       </c>
       <c r="P92">
-        <v>0.223702713913739</v>
+        <v>0.22406698609537226</v>
       </c>
       <c r="Q92">
         <v>0.22606217116532146</v>
@@ -7436,10 +7436,10 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0.22693179354838711</v>
+        <v>0.22676492712550606</v>
       </c>
       <c r="I93">
-        <v>0.22785220215053764</v>
+        <v>0.2278693643724696</v>
       </c>
       <c r="J93">
         <v>0.25954154260483386</v>
@@ -7457,10 +7457,10 @@
         <v>2</v>
       </c>
       <c r="O93">
-        <v>0.2297039791129955</v>
+        <v>0.22940154445493915</v>
       </c>
       <c r="P93">
-        <v>0.22381694132818791</v>
+        <v>0.2241790557742889</v>
       </c>
       <c r="Q93">
         <v>0.25954154260483386</v>
@@ -13668,10 +13668,10 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0.13990320000000001</v>
+        <v>0.14003780971659918</v>
       </c>
       <c r="I191">
-        <v>0.21498177634408605</v>
+        <v>0.21488914170040482</v>
       </c>
       <c r="J191">
         <v>9.573067979353278E-2</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="O191">
-        <v>0.13442630644914078</v>
+        <v>0.13476594027511923</v>
       </c>
       <c r="P191">
-        <v>0.21185142491905828</v>
+        <v>0.21201601497826772</v>
       </c>
       <c r="Q191">
         <v>9.573067979353278E-2</v>
@@ -13742,10 +13742,10 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>0.13990320000000001</v>
+        <v>0.14003780971659918</v>
       </c>
       <c r="I192">
-        <v>0.18066064086021505</v>
+        <v>0.18065981376518214</v>
       </c>
       <c r="J192">
         <v>9.148940065970268E-2</v>
@@ -13763,10 +13763,10 @@
         <v>2</v>
       </c>
       <c r="O192">
-        <v>0.13459755566048842</v>
+        <v>0.13493503548777014</v>
       </c>
       <c r="P192">
-        <v>0.17727606429164866</v>
+        <v>0.17753548411338652</v>
       </c>
       <c r="Q192">
         <v>9.148940065970268E-2</v>
@@ -13816,10 +13816,10 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>0.13990320000000001</v>
+        <v>0.14003780971659918</v>
       </c>
       <c r="I193">
-        <v>0.1463395053763441</v>
+        <v>0.14643048582995949</v>
       </c>
       <c r="J193">
         <v>9.9770497093209884E-2</v>
@@ -13837,10 +13837,10 @@
         <v>2</v>
       </c>
       <c r="O193">
-        <v>0.13386325554269557</v>
+        <v>0.13423530616021423</v>
       </c>
       <c r="P193">
-        <v>0.14430596151175054</v>
+        <v>0.14458799350528509</v>
       </c>
       <c r="Q193">
         <v>9.9770497093209884E-2</v>
@@ -13890,10 +13890,10 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>0.13990320000000001</v>
+        <v>0.14003780971659918</v>
       </c>
       <c r="I194">
-        <v>0.11201836989247313</v>
+        <v>0.11220115789473684</v>
       </c>
       <c r="J194">
         <v>7.8278439637120889E-2</v>
@@ -13911,10 +13911,10 @@
         <v>2</v>
       </c>
       <c r="O194">
-        <v>0.13416408119320117</v>
+        <v>0.13452545740431016</v>
       </c>
       <c r="P194">
-        <v>0.10933630998719474</v>
+        <v>0.10973824004142069</v>
       </c>
       <c r="Q194">
         <v>7.8278439637120889E-2</v>
@@ -19032,16 +19032,16 @@
         <v>0</v>
       </c>
       <c r="AP266">
-        <v>0.19921577204416657</v>
+        <v>0.19920065056293135</v>
       </c>
       <c r="AQ266">
-        <v>0.15215443262363351</v>
+        <v>0.15217455366185084</v>
       </c>
       <c r="AR266">
-        <v>0.28681643414947983</v>
+        <v>0.28683155563071494</v>
       </c>
       <c r="AS266">
-        <v>0.21802008375311624</v>
+        <v>0.21799996271489885</v>
       </c>
     </row>
     <row r="267" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -20136,16 +20136,16 @@
         <v>0</v>
       </c>
       <c r="AP281">
-        <v>0.33312432282197468</v>
+        <v>0.33311789065792269</v>
       </c>
       <c r="AQ281">
-        <v>0.12724329973389212</v>
+        <v>0.12723210356301437</v>
       </c>
       <c r="AR281">
-        <v>0.35913073217697</v>
+        <v>0.35913716434102189</v>
       </c>
       <c r="AS281">
-        <v>0.11228781002407605</v>
+        <v>0.11229900619495367</v>
       </c>
     </row>
     <row r="282" spans="1:45" x14ac:dyDescent="0.5">
@@ -20255,16 +20255,16 @@
         <v>0</v>
       </c>
       <c r="AP282">
-        <v>0.369975000647916</v>
+        <v>0.36998082416778577</v>
       </c>
       <c r="AQ282">
-        <v>0.13346037230873684</v>
+        <v>0.13345022652478633</v>
       </c>
       <c r="AR282">
-        <v>0.32228005435102869</v>
+        <v>0.3222742308311588</v>
       </c>
       <c r="AS282">
-        <v>0.10607073744923132</v>
+        <v>0.10608088323318172</v>
       </c>
     </row>
     <row r="283" spans="1:45" x14ac:dyDescent="0.5">
@@ -20380,16 +20380,16 @@
         <v>0</v>
       </c>
       <c r="AP283">
-        <v>0.34002364741398167</v>
+        <v>0.34002364741398156</v>
       </c>
       <c r="AQ283">
-        <v>0.14116167479349337</v>
+        <v>0.14116167479349331</v>
       </c>
       <c r="AR283">
         <v>0.35223140758496302</v>
       </c>
       <c r="AS283">
-        <v>0.15336943496447478</v>
+        <v>0.15336943496447472</v>
       </c>
     </row>
     <row r="284" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -22040,13 +22040,13 @@
         <v>0</v>
       </c>
       <c r="AP303">
-        <v>5.41938332170269E-2</v>
+        <v>5.4193833217026914E-2</v>
       </c>
       <c r="AQ303">
         <v>0.23588725818837483</v>
       </c>
       <c r="AR303">
-        <v>5.419383321702697E-2</v>
+        <v>5.4193833217026983E-2</v>
       </c>
       <c r="AS303">
         <v>0.13428725818837486</v>
@@ -22269,13 +22269,13 @@
         <v>0.14703883321702677</v>
       </c>
       <c r="AQ305">
-        <v>0.25898862791507243</v>
+        <v>0.25898862791507232</v>
       </c>
       <c r="AR305">
         <v>0.13328883321702673</v>
       </c>
       <c r="AS305">
-        <v>0.25898862791507243</v>
+        <v>0.25898862791507232</v>
       </c>
     </row>
     <row r="306" spans="1:45" x14ac:dyDescent="0.5">
@@ -22382,13 +22382,13 @@
         <v>9.5238833217026767E-2</v>
       </c>
       <c r="AQ306">
-        <v>0.12113996402049673</v>
+        <v>0.12113996402049668</v>
       </c>
       <c r="AR306">
         <v>0.14603883321702679</v>
       </c>
       <c r="AS306">
-        <v>0.12113996402049684</v>
+        <v>0.12113996402049679</v>
       </c>
     </row>
     <row r="307" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.5">
@@ -23874,13 +23874,13 @@
         <v>0.19875483042568001</v>
       </c>
       <c r="AQ329">
-        <v>8.8609468813883666E-2</v>
+        <v>8.8609468813883638E-2</v>
       </c>
       <c r="AR329">
         <v>0.15035483042567996</v>
       </c>
       <c r="AS329">
-        <v>8.8609468813883638E-2</v>
+        <v>8.860946881388361E-2</v>
       </c>
     </row>
     <row r="330" spans="1:45" x14ac:dyDescent="0.5">
@@ -23987,13 +23987,13 @@
         <v>0.19875483042567998</v>
       </c>
       <c r="AQ330">
-        <v>9.9272824920721481E-2</v>
+        <v>9.9272824920721453E-2</v>
       </c>
       <c r="AR330">
         <v>0.14235483042567998</v>
       </c>
       <c r="AS330">
-        <v>9.9272824920721425E-2</v>
+        <v>9.9272824920721398E-2</v>
       </c>
     </row>
     <row r="331" spans="1:45" x14ac:dyDescent="0.5">
@@ -24100,13 +24100,13 @@
         <v>0.14235483042567998</v>
       </c>
       <c r="AQ331">
-        <v>9.9272824920722078E-2</v>
+        <v>9.927282492072205E-2</v>
       </c>
       <c r="AR331">
         <v>8.6194830425680269E-2</v>
       </c>
       <c r="AS331">
-        <v>9.927282492072205E-2</v>
+        <v>9.9272824920722022E-2</v>
       </c>
     </row>
     <row r="332" spans="1:45" x14ac:dyDescent="0.5">
@@ -24126,7 +24126,7 @@
         <v>5</v>
       </c>
       <c r="F332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G332">
         <v>1</v>
@@ -24216,10 +24216,10 @@
         <v>0</v>
       </c>
       <c r="AP332">
-        <v>3.2526201275578592E-2</v>
+        <v>3.2526201275578565E-2</v>
       </c>
       <c r="AQ332">
-        <v>7.8140845214166518E-2</v>
+        <v>7.8140845214166463E-2</v>
       </c>
       <c r="AR332">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="AP333">
-        <v>3.4521876258293005E-2</v>
+        <v>3.4521876258292991E-2</v>
       </c>
       <c r="AQ333">
-        <v>6.7328522356393861E-2</v>
+        <v>6.7328522356393805E-2</v>
       </c>
       <c r="AR333">
         <v>0</v>
@@ -24448,13 +24448,13 @@
         <v>0</v>
       </c>
       <c r="AP334">
-        <v>0.20875483042568005</v>
+        <v>0.20875483042567999</v>
       </c>
       <c r="AQ334">
         <v>7.7009474364268235E-2</v>
       </c>
       <c r="AR334">
-        <v>0.20875483042568005</v>
+        <v>0.20875483042567999</v>
       </c>
       <c r="AS334">
         <v>7.100947436426823E-2</v>
@@ -24477,7 +24477,7 @@
         <v>2</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335">
         <v>1</v>
